--- a/Assets/Resources/Json/.ShopConfig.xlsx
+++ b/Assets/Resources/Json/.ShopConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22480" windowHeight="13920"/>
+    <workbookView windowWidth="27915" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -100,7 +100,7 @@
 0不限购</t>
   </si>
   <si>
-    <t>Diamonds</t>
+    <t>钻石</t>
   </si>
   <si>
     <t>2,150</t>
@@ -109,7 +109,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Coins</t>
+    <t>金币</t>
   </si>
   <si>
     <t>1,7500</t>
@@ -133,7 +133,7 @@
     <t>360</t>
   </si>
   <si>
-    <t>Basic Parts Crate</t>
+    <t>基础部件宝箱</t>
   </si>
   <si>
     <t>300,1</t>
@@ -142,7 +142,7 @@
     <t>150,150,200,250,300</t>
   </si>
   <si>
-    <t>Premium Parts Crate</t>
+    <t>精品部件宝箱</t>
   </si>
   <si>
     <t>301,1</t>
@@ -151,7 +151,7 @@
     <t>600,650,700,750,800</t>
   </si>
   <si>
-    <t>Deluxe Parts Crate</t>
+    <t>豪华部件宝箱</t>
   </si>
   <si>
     <t>302,1</t>
@@ -160,7 +160,7 @@
     <t>2000,2050,2100,2200,2300</t>
   </si>
   <si>
-    <t>Base Color 11</t>
+    <t>底漆颜色11</t>
   </si>
   <si>
     <t>1,1</t>
@@ -169,49 +169,52 @@
     <t>200</t>
   </si>
   <si>
-    <t>Base Color 12</t>
-  </si>
-  <si>
-    <t>Base Color 13</t>
+    <t>底漆颜色12</t>
+  </si>
+  <si>
+    <t>底漆颜色13</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>Accent Color 11</t>
-  </si>
-  <si>
-    <t>Accent Color 12</t>
-  </si>
-  <si>
-    <t>Accent Color 13</t>
-  </si>
-  <si>
-    <t>LED Set 4</t>
-  </si>
-  <si>
-    <t>LED Set 5</t>
-  </si>
-  <si>
-    <t>LED Set 6</t>
-  </si>
-  <si>
-    <t>Base Decal 4</t>
-  </si>
-  <si>
-    <t>Base Decal 5</t>
-  </si>
-  <si>
-    <t>Base Decal 6</t>
-  </si>
-  <si>
-    <t>Not Enough Diamonds</t>
+    <t>装饰颜色11</t>
+  </si>
+  <si>
+    <t>装饰颜色12</t>
+  </si>
+  <si>
+    <t>装饰颜色13</t>
+  </si>
+  <si>
+    <t>LED灯组4</t>
+  </si>
+  <si>
+    <t>LED灯组5</t>
+  </si>
+  <si>
+    <t>LED灯组6</t>
+  </si>
+  <si>
+    <t>底漆贴纸4</t>
+  </si>
+  <si>
+    <t>底漆贴纸5</t>
+  </si>
+  <si>
+    <t>底漆贴纸6</t>
+  </si>
+  <si>
+    <t>钻石不足</t>
   </si>
   <si>
     <t>2,100</t>
   </si>
   <si>
-    <t>In-Game Crate Collection Distance</t>
+    <t>金币不足</t>
+  </si>
+  <si>
+    <t>局内宝箱获取距离</t>
   </si>
   <si>
     <t>0,0</t>
@@ -234,7 +237,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +245,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -250,14 +253,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -265,7 +268,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -273,7 +276,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -281,7 +284,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -289,7 +292,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -297,14 +300,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -312,7 +315,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +323,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -328,14 +331,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -343,42 +346,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -868,55 +871,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1180,10 +1183,10 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D$1:D$1048576"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -1217,7 +1220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:7">
+    <row r="2" ht="27" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
@@ -1754,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>999</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>2000</v>
@@ -1786,7 +1789,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1803,7 +1806,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Json/.ShopConfig.xlsx
+++ b/Assets/Resources/Json/.ShopConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27915" windowHeight="12225"/>
+    <workbookView windowWidth="22480" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -100,7 +100,7 @@
 0不限购</t>
   </si>
   <si>
-    <t>钻石</t>
+    <t>Diamonds</t>
   </si>
   <si>
     <t>2,150</t>
@@ -109,7 +109,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>金币</t>
+    <t>Coins</t>
   </si>
   <si>
     <t>1,7500</t>
@@ -133,7 +133,7 @@
     <t>360</t>
   </si>
   <si>
-    <t>基础部件宝箱</t>
+    <t>Basic Parts Crate</t>
   </si>
   <si>
     <t>300,1</t>
@@ -142,7 +142,7 @@
     <t>150,150,200,250,300</t>
   </si>
   <si>
-    <t>精品部件宝箱</t>
+    <t>Premium Parts Crate</t>
   </si>
   <si>
     <t>301,1</t>
@@ -151,7 +151,7 @@
     <t>600,650,700,750,800</t>
   </si>
   <si>
-    <t>豪华部件宝箱</t>
+    <t>Deluxe Parts Crate</t>
   </si>
   <si>
     <t>302,1</t>
@@ -160,7 +160,7 @@
     <t>2000,2050,2100,2200,2300</t>
   </si>
   <si>
-    <t>底漆颜色11</t>
+    <t>Base Color 11</t>
   </si>
   <si>
     <t>1,1</t>
@@ -169,52 +169,49 @@
     <t>200</t>
   </si>
   <si>
-    <t>底漆颜色12</t>
-  </si>
-  <si>
-    <t>底漆颜色13</t>
+    <t>Base Color 12</t>
+  </si>
+  <si>
+    <t>Base Color 13</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>装饰颜色11</t>
-  </si>
-  <si>
-    <t>装饰颜色12</t>
-  </si>
-  <si>
-    <t>装饰颜色13</t>
-  </si>
-  <si>
-    <t>LED灯组4</t>
-  </si>
-  <si>
-    <t>LED灯组5</t>
-  </si>
-  <si>
-    <t>LED灯组6</t>
-  </si>
-  <si>
-    <t>底漆贴纸4</t>
-  </si>
-  <si>
-    <t>底漆贴纸5</t>
-  </si>
-  <si>
-    <t>底漆贴纸6</t>
-  </si>
-  <si>
-    <t>钻石不足</t>
+    <t>Accent Color 11</t>
+  </si>
+  <si>
+    <t>Accent Color 12</t>
+  </si>
+  <si>
+    <t>Accent Color 13</t>
+  </si>
+  <si>
+    <t>LED Set 4</t>
+  </si>
+  <si>
+    <t>LED Set 5</t>
+  </si>
+  <si>
+    <t>LED Set 6</t>
+  </si>
+  <si>
+    <t>Base Decal 4</t>
+  </si>
+  <si>
+    <t>Base Decal 5</t>
+  </si>
+  <si>
+    <t>Base Decal 6</t>
+  </si>
+  <si>
+    <t>Not Enough Diamonds</t>
   </si>
   <si>
     <t>2,100</t>
   </si>
   <si>
-    <t>金币不足</t>
-  </si>
-  <si>
-    <t>局内宝箱获取距离</t>
+    <t>In-Game Crate Collection Distance</t>
   </si>
   <si>
     <t>0,0</t>
@@ -237,7 +234,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -245,7 +242,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -253,14 +250,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +265,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -276,7 +273,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +281,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +289,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -300,14 +297,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -315,7 +312,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -323,7 +320,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -331,14 +328,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -346,42 +343,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -871,55 +868,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1183,10 +1180,10 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D10" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -1220,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:7">
+    <row r="2" ht="34" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
@@ -1757,16 +1754,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E25">
         <v>999</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25">
         <v>2000</v>
@@ -1789,7 +1786,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1806,7 +1803,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
